--- a/analitics/adjust_strategy_test.xlsx
+++ b/analitics/adjust_strategy_test.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51100" windowHeight="22240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51100" windowHeight="22240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="best strategies" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -8155,11 +8153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2146073528"/>
-        <c:axId val="2146076648"/>
+        <c:axId val="2066775512"/>
+        <c:axId val="2066772568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2146073528"/>
+        <c:axId val="2066775512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8169,7 +8167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146076648"/>
+        <c:crossAx val="2066772568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8177,7 +8175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146076648"/>
+        <c:axId val="2066772568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310.0"/>
@@ -8190,7 +8188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146073528"/>
+        <c:crossAx val="2066775512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -8243,19 +8241,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8582,7 +8567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I376"/>
     </sheetView>
   </sheetViews>
@@ -23243,4 +23228,1942 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>137.375</v>
+      </c>
+      <c r="F2">
+        <v>294.375</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>119</v>
+      </c>
+      <c r="M2">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>142.75</v>
+      </c>
+      <c r="F3">
+        <v>299.375</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>131.875</v>
+      </c>
+      <c r="M3">
+        <v>278.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>123.25</v>
+      </c>
+      <c r="F4">
+        <v>267.875</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>135.5</v>
+      </c>
+      <c r="M4">
+        <v>287.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>133.5</v>
+      </c>
+      <c r="F5">
+        <v>284.875</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>128.75</v>
+      </c>
+      <c r="M5">
+        <v>276.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>143.375</v>
+      </c>
+      <c r="F6">
+        <v>283.5</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>152.875</v>
+      </c>
+      <c r="M6">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>139</v>
+      </c>
+      <c r="F7">
+        <v>280.125</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>133.375</v>
+      </c>
+      <c r="M7">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>136.75</v>
+      </c>
+      <c r="F8">
+        <v>293.625</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>144.75</v>
+      </c>
+      <c r="M8">
+        <v>292.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>129</v>
+      </c>
+      <c r="F9">
+        <v>271.25</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>137.125</v>
+      </c>
+      <c r="M9">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>138.25</v>
+      </c>
+      <c r="F10">
+        <v>286</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>143.25</v>
+      </c>
+      <c r="M10">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>142.125</v>
+      </c>
+      <c r="F11">
+        <v>294.25</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>141.125</v>
+      </c>
+      <c r="M11">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>138.875</v>
+      </c>
+      <c r="F12">
+        <v>293.5</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>132.625</v>
+      </c>
+      <c r="M12">
+        <v>284.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>135.375</v>
+      </c>
+      <c r="F13">
+        <v>294.875</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>146.5</v>
+      </c>
+      <c r="M13">
+        <v>309.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>139.75</v>
+      </c>
+      <c r="F14">
+        <v>289.5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>134.875</v>
+      </c>
+      <c r="M14">
+        <v>284.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>139</v>
+      </c>
+      <c r="F15">
+        <v>300.375</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>141.375</v>
+      </c>
+      <c r="M15">
+        <v>295.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>136.875</v>
+      </c>
+      <c r="F16">
+        <v>297.75</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>145.5</v>
+      </c>
+      <c r="M16">
+        <v>307.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>125.375</v>
+      </c>
+      <c r="F17">
+        <v>276.625</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>147.625</v>
+      </c>
+      <c r="M17">
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>134.875</v>
+      </c>
+      <c r="F18">
+        <v>290</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>133.375</v>
+      </c>
+      <c r="M18">
+        <v>285.625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>130.125</v>
+      </c>
+      <c r="F19">
+        <v>278</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>132.25</v>
+      </c>
+      <c r="M19">
+        <v>280.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>135.875</v>
+      </c>
+      <c r="F20">
+        <v>297</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>135.5</v>
+      </c>
+      <c r="M20">
+        <v>291.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>141.75</v>
+      </c>
+      <c r="F21">
+        <v>300.875</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>147.125</v>
+      </c>
+      <c r="M21">
+        <v>298.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>132.5</v>
+      </c>
+      <c r="F22">
+        <v>275.25</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>141.375</v>
+      </c>
+      <c r="M22">
+        <v>292.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>134.5</v>
+      </c>
+      <c r="F23">
+        <v>289</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>138.25</v>
+      </c>
+      <c r="M23">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>132.375</v>
+      </c>
+      <c r="F24">
+        <v>277.5</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>148.75</v>
+      </c>
+      <c r="M24">
+        <v>293.875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>143.25</v>
+      </c>
+      <c r="F25">
+        <v>299.875</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>132</v>
+      </c>
+      <c r="M25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>142.625</v>
+      </c>
+      <c r="F26">
+        <v>308.75</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>132.25</v>
+      </c>
+      <c r="M26">
+        <v>283.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>136.25</v>
+      </c>
+      <c r="F27">
+        <v>291.125</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>153.5</v>
+      </c>
+      <c r="M27">
+        <v>302.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>135.75</v>
+      </c>
+      <c r="F28">
+        <v>283.375</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>141.125</v>
+      </c>
+      <c r="M28">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>136.5</v>
+      </c>
+      <c r="F29">
+        <v>289.875</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>139</v>
+      </c>
+      <c r="M29">
+        <v>294.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>135.75</v>
+      </c>
+      <c r="F30">
+        <v>291.125</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>143.25</v>
+      </c>
+      <c r="M30">
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>144</v>
+      </c>
+      <c r="F31">
+        <v>300.5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>133.875</v>
+      </c>
+      <c r="M31">
+        <v>293.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>123</v>
+      </c>
+      <c r="F32">
+        <v>265.875</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>128.5</v>
+      </c>
+      <c r="M32">
+        <v>278.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>142.75</v>
+      </c>
+      <c r="F33">
+        <v>299.875</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>137.125</v>
+      </c>
+      <c r="M33">
+        <v>285.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>137.25</v>
+      </c>
+      <c r="F34">
+        <v>289.375</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>136.25</v>
+      </c>
+      <c r="M34">
+        <v>289.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>141.5</v>
+      </c>
+      <c r="F35">
+        <v>305.125</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>129.125</v>
+      </c>
+      <c r="M35">
+        <v>282.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>134</v>
+      </c>
+      <c r="F36">
+        <v>297.5</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>137.75</v>
+      </c>
+      <c r="M36">
+        <v>285.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>139.375</v>
+      </c>
+      <c r="F37">
+        <v>292.125</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>141.125</v>
+      </c>
+      <c r="M37">
+        <v>290.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>137.875</v>
+      </c>
+      <c r="F38">
+        <v>303.375</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>143.375</v>
+      </c>
+      <c r="M38">
+        <v>296.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>141.625</v>
+      </c>
+      <c r="F39">
+        <v>304.875</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>140.375</v>
+      </c>
+      <c r="M39">
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>147</v>
+      </c>
+      <c r="F40">
+        <v>297.75</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>143.25</v>
+      </c>
+      <c r="M40">
+        <v>294.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="F41">
+        <v>307</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>140</v>
+      </c>
+      <c r="M41">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>138.625</v>
+      </c>
+      <c r="F42">
+        <v>297.625</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>147.75</v>
+      </c>
+      <c r="M42">
+        <v>301.625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>138.5</v>
+      </c>
+      <c r="F43">
+        <v>294.5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>141.375</v>
+      </c>
+      <c r="M43">
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>139.125</v>
+      </c>
+      <c r="F44">
+        <v>294.875</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>139.25</v>
+      </c>
+      <c r="M44">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>136.625</v>
+      </c>
+      <c r="F45">
+        <v>280</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+      <c r="L45">
+        <v>141</v>
+      </c>
+      <c r="M45">
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>140.5</v>
+      </c>
+      <c r="F46">
+        <v>301.875</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>135.375</v>
+      </c>
+      <c r="M46">
+        <v>294.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>131.75</v>
+      </c>
+      <c r="F47">
+        <v>284.25</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>149.875</v>
+      </c>
+      <c r="M47">
+        <v>289.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>143.625</v>
+      </c>
+      <c r="F48">
+        <v>289.375</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>145.875</v>
+      </c>
+      <c r="M48">
+        <v>297.375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>135.625</v>
+      </c>
+      <c r="F49">
+        <v>280</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>143.375</v>
+      </c>
+      <c r="M49">
+        <v>288.875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>140.375</v>
+      </c>
+      <c r="F50">
+        <v>299</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>139.125</v>
+      </c>
+      <c r="M50">
+        <v>295.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>141.25</v>
+      </c>
+      <c r="F51">
+        <v>300.375</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>151.375</v>
+      </c>
+      <c r="M51">
+        <v>308.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="E54">
+        <f>AVERAGE(E2:E53)</f>
+        <v>137.3425</v>
+      </c>
+      <c r="F54">
+        <f>AVERAGE(F2:F53)</f>
+        <v>291.29750000000001</v>
+      </c>
+      <c r="L54">
+        <f>AVERAGE(L2:L53)</f>
+        <v>139.58000000000001</v>
+      </c>
+      <c r="M54">
+        <f>AVERAGE(M2:M53)</f>
+        <v>291.29750000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/analitics/adjust_strategy_test.xlsx
+++ b/analitics/adjust_strategy_test.xlsx
@@ -23232,15 +23232,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M54"/>
+  <dimension ref="A2:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>5</v>
       </c>
@@ -23277,8 +23277,26 @@
       <c r="M2">
         <v>243.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>116.875</v>
+      </c>
+      <c r="T2">
+        <v>246.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>7</v>
       </c>
@@ -23315,8 +23333,26 @@
       <c r="M3">
         <v>278.375</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>141.625</v>
+      </c>
+      <c r="T3">
+        <v>288.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>7</v>
       </c>
@@ -23353,8 +23389,26 @@
       <c r="M4">
         <v>287.875</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>127</v>
+      </c>
+      <c r="T4">
+        <v>272.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>7</v>
       </c>
@@ -23391,8 +23445,26 @@
       <c r="M5">
         <v>276.125</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>134.75</v>
+      </c>
+      <c r="T5">
+        <v>291.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>7</v>
       </c>
@@ -23429,8 +23501,26 @@
       <c r="M6">
         <v>297.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>138.375</v>
+      </c>
+      <c r="T6">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23467,8 +23557,26 @@
       <c r="M7">
         <v>286.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>138.125</v>
+      </c>
+      <c r="T7">
+        <v>278.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>4</v>
       </c>
@@ -23505,8 +23613,26 @@
       <c r="M8">
         <v>292.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>137.5</v>
+      </c>
+      <c r="T8">
+        <v>288.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7</v>
       </c>
@@ -23543,8 +23669,26 @@
       <c r="M9">
         <v>278</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>138.375</v>
+      </c>
+      <c r="T9">
+        <v>285.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>6</v>
       </c>
@@ -23581,8 +23725,26 @@
       <c r="M10">
         <v>300.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>134.5</v>
+      </c>
+      <c r="T10">
+        <v>289.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>6</v>
       </c>
@@ -23619,8 +23781,26 @@
       <c r="M11">
         <v>286.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>143.375</v>
+      </c>
+      <c r="T11">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>7</v>
       </c>
@@ -23657,8 +23837,26 @@
       <c r="M12">
         <v>284.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>144.375</v>
+      </c>
+      <c r="T12">
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>7</v>
       </c>
@@ -23695,8 +23893,26 @@
       <c r="M13">
         <v>309.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>143.875</v>
+      </c>
+      <c r="T13">
+        <v>303.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>6</v>
       </c>
@@ -23733,8 +23949,26 @@
       <c r="M14">
         <v>284.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>142.125</v>
+      </c>
+      <c r="T14">
+        <v>300.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>7</v>
       </c>
@@ -23771,8 +24005,26 @@
       <c r="M15">
         <v>295.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>139.5</v>
+      </c>
+      <c r="T15">
+        <v>300.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>6</v>
       </c>
@@ -23809,8 +24061,26 @@
       <c r="M16">
         <v>307.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>140.625</v>
+      </c>
+      <c r="T16">
+        <v>295.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>7</v>
       </c>
@@ -23847,8 +24117,26 @@
       <c r="M17">
         <v>301.125</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>138.25</v>
+      </c>
+      <c r="T17">
+        <v>280.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>7</v>
       </c>
@@ -23885,8 +24173,26 @@
       <c r="M18">
         <v>285.625</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>133.375</v>
+      </c>
+      <c r="T18">
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>5</v>
       </c>
@@ -23923,8 +24229,26 @@
       <c r="M19">
         <v>280.625</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>145.75</v>
+      </c>
+      <c r="T19">
+        <v>297.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>5</v>
       </c>
@@ -23961,8 +24285,26 @@
       <c r="M20">
         <v>291.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>136.625</v>
+      </c>
+      <c r="T20">
+        <v>284.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>5</v>
       </c>
@@ -23999,8 +24341,26 @@
       <c r="M21">
         <v>298.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>141.125</v>
+      </c>
+      <c r="T21">
+        <v>298.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>6</v>
       </c>
@@ -24037,8 +24397,26 @@
       <c r="M22">
         <v>292.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>136.25</v>
+      </c>
+      <c r="T22">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>5</v>
       </c>
@@ -24075,8 +24453,26 @@
       <c r="M23">
         <v>286.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>139.625</v>
+      </c>
+      <c r="T23">
+        <v>288.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>6</v>
       </c>
@@ -24113,8 +24509,26 @@
       <c r="M24">
         <v>293.875</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>141.75</v>
+      </c>
+      <c r="T24">
+        <v>297.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>6</v>
       </c>
@@ -24151,8 +24565,26 @@
       <c r="M25">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>142.25</v>
+      </c>
+      <c r="T25">
+        <v>291.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>7</v>
       </c>
@@ -24189,8 +24621,26 @@
       <c r="M26">
         <v>283.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>136.75</v>
+      </c>
+      <c r="T26">
+        <v>292.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>6</v>
       </c>
@@ -24227,8 +24677,26 @@
       <c r="M27">
         <v>302.125</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>136.375</v>
+      </c>
+      <c r="T27">
+        <v>292.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>7</v>
       </c>
@@ -24265,8 +24733,26 @@
       <c r="M28">
         <v>298</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>141.125</v>
+      </c>
+      <c r="T28">
+        <v>297.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>7</v>
       </c>
@@ -24303,8 +24789,26 @@
       <c r="M29">
         <v>294.875</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>140.5</v>
+      </c>
+      <c r="T29">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>5</v>
       </c>
@@ -24341,8 +24845,26 @@
       <c r="M30">
         <v>299.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>131.5</v>
+      </c>
+      <c r="T30">
+        <v>284.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>7</v>
       </c>
@@ -24379,8 +24901,26 @@
       <c r="M31">
         <v>293.375</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>135</v>
+      </c>
+      <c r="T31">
+        <v>292.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>5</v>
       </c>
@@ -24417,8 +24957,26 @@
       <c r="M32">
         <v>278.875</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>134.375</v>
+      </c>
+      <c r="T32">
+        <v>293.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>7</v>
       </c>
@@ -24455,8 +25013,26 @@
       <c r="M33">
         <v>285.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>137.75</v>
+      </c>
+      <c r="T33">
+        <v>284.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>7</v>
       </c>
@@ -24493,8 +25069,26 @@
       <c r="M34">
         <v>289.125</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>143.625</v>
+      </c>
+      <c r="T34">
+        <v>295.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>7</v>
       </c>
@@ -24531,8 +25125,26 @@
       <c r="M35">
         <v>282.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>136.75</v>
+      </c>
+      <c r="T35">
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>6</v>
       </c>
@@ -24569,8 +25181,26 @@
       <c r="M36">
         <v>285.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>139.75</v>
+      </c>
+      <c r="T36">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>5</v>
       </c>
@@ -24607,8 +25237,26 @@
       <c r="M37">
         <v>290.125</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>135.25</v>
+      </c>
+      <c r="T37">
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>6</v>
       </c>
@@ -24645,8 +25293,26 @@
       <c r="M38">
         <v>296.375</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>138.875</v>
+      </c>
+      <c r="T38">
+        <v>287.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>7</v>
       </c>
@@ -24683,8 +25349,26 @@
       <c r="M39">
         <v>306.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>138.625</v>
+      </c>
+      <c r="T39">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>7</v>
       </c>
@@ -24721,8 +25405,26 @@
       <c r="M40">
         <v>294.875</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>145.5</v>
+      </c>
+      <c r="T40">
+        <v>303.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>5</v>
       </c>
@@ -24759,8 +25461,26 @@
       <c r="M41">
         <v>285.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>137</v>
+      </c>
+      <c r="T41">
+        <v>295.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>7</v>
       </c>
@@ -24797,8 +25517,26 @@
       <c r="M42">
         <v>301.625</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>137.5</v>
+      </c>
+      <c r="T42">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>5</v>
       </c>
@@ -24835,8 +25573,26 @@
       <c r="M43">
         <v>298.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>136.375</v>
+      </c>
+      <c r="T43">
+        <v>292.375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>7</v>
       </c>
@@ -24873,8 +25629,26 @@
       <c r="M44">
         <v>297.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>142</v>
+      </c>
+      <c r="T44">
+        <v>291.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>5</v>
       </c>
@@ -24911,8 +25685,26 @@
       <c r="M45">
         <v>302.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>8</v>
+      </c>
+      <c r="S45">
+        <v>147.75</v>
+      </c>
+      <c r="T45">
+        <v>311.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>6</v>
       </c>
@@ -24949,8 +25741,26 @@
       <c r="M46">
         <v>294.375</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>8</v>
+      </c>
+      <c r="S46">
+        <v>136.25</v>
+      </c>
+      <c r="T46">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>5</v>
       </c>
@@ -24987,8 +25797,26 @@
       <c r="M47">
         <v>289.375</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>131.875</v>
+      </c>
+      <c r="T47">
+        <v>273.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>5</v>
       </c>
@@ -25025,8 +25853,26 @@
       <c r="M48">
         <v>297.375</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
+        <v>138.125</v>
+      </c>
+      <c r="T48">
+        <v>287.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>7</v>
       </c>
@@ -25063,8 +25909,26 @@
       <c r="M49">
         <v>288.875</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>145.625</v>
+      </c>
+      <c r="T49">
+        <v>303.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>5</v>
       </c>
@@ -25101,8 +25965,26 @@
       <c r="M50">
         <v>295.25</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>142.125</v>
+      </c>
+      <c r="T50">
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>6</v>
       </c>
@@ -25139,8 +26021,26 @@
       <c r="M51">
         <v>308.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>143.125</v>
+      </c>
+      <c r="T51">
+        <v>300.125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="E54">
         <f>AVERAGE(E2:E53)</f>
         <v>137.3425</v>
@@ -25156,6 +26056,14 @@
       <c r="M54">
         <f>AVERAGE(M2:M53)</f>
         <v>291.29750000000001</v>
+      </c>
+      <c r="S54">
+        <f>AVERAGE(S2:S53)</f>
+        <v>138.51</v>
+      </c>
+      <c r="T54">
+        <f>AVERAGE(T2:T53)</f>
+        <v>291.53500000000003</v>
       </c>
     </row>
   </sheetData>
